--- a/companies.xlsx
+++ b/companies.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402739FF-F754-492C-B1DB-237A973CC15E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456DB4E0-7458-4B1A-AD5B-6D01007E7C7A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Company</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Perspecta</t>
+  </si>
+  <si>
+    <t>SalesForce</t>
   </si>
 </sst>
 </file>
@@ -409,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,26 +519,31 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
@@ -543,7 +551,7 @@
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" tooltip="Deloitte (66)" display="https://www.indeed.com/jobs?q=software+engineer&amp;l=Centreville,+VA&amp;rbc=Deloitte&amp;jcid=9e215d88a6b33622" xr:uid="{EE60EC27-D292-4D82-B244-911980204602}"/>
     <hyperlink ref="A16" r:id="rId2" tooltip="Raytheon (66)" display="https://www.indeed.com/jobs?q=software+engineer&amp;l=Centreville,+VA&amp;rbc=Raytheon&amp;jcid=aa53b551f9df0210" xr:uid="{61E24D65-B79C-40BC-8C45-1BAA5924FB78}"/>
-    <hyperlink ref="A22" r:id="rId3" tooltip="Boeing Intelligence &amp; Analytics (98)" display="https://www.indeed.com/jobs?q=software+engineer&amp;l=20121&amp;radius=50&amp;rbc=Boeing+Intelligence+%26+Analytics&amp;jcid=c101d5aa5457c990" xr:uid="{EFFA940F-90A1-4D4E-9ADB-758A7B2D3C5D}"/>
+    <hyperlink ref="A23" r:id="rId3" tooltip="Boeing Intelligence &amp; Analytics (98)" display="https://www.indeed.com/jobs?q=software+engineer&amp;l=20121&amp;radius=50&amp;rbc=Boeing+Intelligence+%26+Analytics&amp;jcid=c101d5aa5457c990" xr:uid="{EFFA940F-90A1-4D4E-9ADB-758A7B2D3C5D}"/>
     <hyperlink ref="A17" r:id="rId4" tooltip="Parsons (100)" display="https://www.indeed.com/jobs?q=software+engineer&amp;l=20121&amp;radius=50&amp;rbc=Parsons&amp;jcid=e8f998ddd15bac9c" xr:uid="{8B198989-BB71-4567-A84E-BE0BA4EF0769}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/companies.xlsx
+++ b/companies.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456DB4E0-7458-4B1A-AD5B-6D01007E7C7A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09513BF-E9E9-4E73-B5B6-066C8033122C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Company</t>
   </si>
@@ -95,16 +95,48 @@
   </si>
   <si>
     <t>SalesForce</t>
+  </si>
+  <si>
+    <t>Souce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">website </t>
+  </si>
+  <si>
+    <t>webiste</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>beckkurbonov@gmail.com</t>
+  </si>
+  <si>
+    <t>f*:8PM4`6Ajk</t>
+  </si>
+  <si>
+    <t>linkedin msg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,13 +159,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -412,92 +449,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>8212019</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>8212019</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>8212019</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>8212019</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -553,8 +631,9 @@
     <hyperlink ref="A16" r:id="rId2" tooltip="Raytheon (66)" display="https://www.indeed.com/jobs?q=software+engineer&amp;l=Centreville,+VA&amp;rbc=Raytheon&amp;jcid=aa53b551f9df0210" xr:uid="{61E24D65-B79C-40BC-8C45-1BAA5924FB78}"/>
     <hyperlink ref="A23" r:id="rId3" tooltip="Boeing Intelligence &amp; Analytics (98)" display="https://www.indeed.com/jobs?q=software+engineer&amp;l=20121&amp;radius=50&amp;rbc=Boeing+Intelligence+%26+Analytics&amp;jcid=c101d5aa5457c990" xr:uid="{EFFA940F-90A1-4D4E-9ADB-758A7B2D3C5D}"/>
     <hyperlink ref="A17" r:id="rId4" tooltip="Parsons (100)" display="https://www.indeed.com/jobs?q=software+engineer&amp;l=20121&amp;radius=50&amp;rbc=Parsons&amp;jcid=e8f998ddd15bac9c" xr:uid="{8B198989-BB71-4567-A84E-BE0BA4EF0769}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{E5B974B0-B696-44BE-9EC0-483BDADED209}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/companies.xlsx
+++ b/companies.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09513BF-E9E9-4E73-B5B6-066C8033122C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85F0A99-BE5E-4B64-80C1-4AB6CD88982F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Company</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>linkedin msg</t>
+  </si>
+  <si>
+    <t>MasterCard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linkedin </t>
   </si>
 </sst>
 </file>
@@ -163,11 +169,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -449,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,6 +524,12 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="2">
+        <v>43700</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -580,48 +593,65 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2">
+        <v>43700</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>20</v>
       </c>
     </row>
@@ -629,9 +659,9 @@
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" tooltip="Deloitte (66)" display="https://www.indeed.com/jobs?q=software+engineer&amp;l=Centreville,+VA&amp;rbc=Deloitte&amp;jcid=9e215d88a6b33622" xr:uid="{EE60EC27-D292-4D82-B244-911980204602}"/>
     <hyperlink ref="A16" r:id="rId2" tooltip="Raytheon (66)" display="https://www.indeed.com/jobs?q=software+engineer&amp;l=Centreville,+VA&amp;rbc=Raytheon&amp;jcid=aa53b551f9df0210" xr:uid="{61E24D65-B79C-40BC-8C45-1BAA5924FB78}"/>
-    <hyperlink ref="A23" r:id="rId3" tooltip="Boeing Intelligence &amp; Analytics (98)" display="https://www.indeed.com/jobs?q=software+engineer&amp;l=20121&amp;radius=50&amp;rbc=Boeing+Intelligence+%26+Analytics&amp;jcid=c101d5aa5457c990" xr:uid="{EFFA940F-90A1-4D4E-9ADB-758A7B2D3C5D}"/>
-    <hyperlink ref="A17" r:id="rId4" tooltip="Parsons (100)" display="https://www.indeed.com/jobs?q=software+engineer&amp;l=20121&amp;radius=50&amp;rbc=Parsons&amp;jcid=e8f998ddd15bac9c" xr:uid="{8B198989-BB71-4567-A84E-BE0BA4EF0769}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{E5B974B0-B696-44BE-9EC0-483BDADED209}"/>
+    <hyperlink ref="A17" r:id="rId3" tooltip="Parsons (100)" display="https://www.indeed.com/jobs?q=software+engineer&amp;l=20121&amp;radius=50&amp;rbc=Parsons&amp;jcid=e8f998ddd15bac9c" xr:uid="{8B198989-BB71-4567-A84E-BE0BA4EF0769}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{E5B974B0-B696-44BE-9EC0-483BDADED209}"/>
+    <hyperlink ref="D20" r:id="rId5" xr:uid="{C83D8170-8BB7-4F91-9499-E45A5273FA97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>

--- a/companies.xlsx
+++ b/companies.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09513BF-E9E9-4E73-B5B6-066C8033122C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA207C9-16FD-4950-9E15-1D4CAC61211E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Company</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>linkedin msg</t>
+  </si>
+  <si>
+    <t>failed</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,47 +583,50 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>

--- a/companies.xlsx
+++ b/companies.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85F0A99-BE5E-4B64-80C1-4AB6CD88982F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC1D5B3-94B5-4FA5-8B07-81914F862710}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Company</t>
   </si>
@@ -125,13 +125,34 @@
   </si>
   <si>
     <t xml:space="preserve">linkedin </t>
+  </si>
+  <si>
+    <t>CIA</t>
+  </si>
+  <si>
+    <r>
+      <t>Your User ID is:  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>h t Q a B 5 k P</t>
+    </r>
+  </si>
+  <si>
+    <t>f*:8PM4`6Ajk!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +167,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,12 +204,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -456,17 +492,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -653,6 +689,17 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
